--- a/BackTest/2019-11-01 BackTest PLY.xlsx
+++ b/BackTest/2019-11-01 BackTest PLY.xlsx
@@ -451,17 +451,13 @@
         <v>4.065333333333335</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.06</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>4.065500000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>4.065500000000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>4.065666666666668</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>4.065833333333335</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>4.065833333333335</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>4.066000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>4.066000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>4.066166666666668</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>4.066333333333334</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>4.066166666666668</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>4.066000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>4.065833333333335</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>4.065833333333335</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>4.065666666666668</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>4.065500000000002</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>4.065666666666668</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1178,22 +1046,14 @@
         <v>4.065833333333335</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1221,22 +1081,14 @@
         <v>4.066000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1264,22 +1116,14 @@
         <v>4.066166666666668</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1307,22 +1151,14 @@
         <v>4.066333333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1350,22 +1186,14 @@
         <v>4.0665</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1393,22 +1221,14 @@
         <v>4.066666666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1436,22 +1256,14 @@
         <v>4.066833333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1479,22 +1291,14 @@
         <v>4.067166666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1528,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1569,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1604,22 +1396,14 @@
         <v>4.068000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1647,22 +1431,14 @@
         <v>4.068333333333334</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1690,22 +1466,14 @@
         <v>4.068500000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1733,22 +1501,14 @@
         <v>4.068833333333334</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1776,22 +1536,14 @@
         <v>4.069166666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K33" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1819,22 +1571,14 @@
         <v>4.0695</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1862,22 +1606,14 @@
         <v>4.069833333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1905,22 +1641,14 @@
         <v>4.070333333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1954,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1995,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2036,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2077,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2118,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2159,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2200,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2241,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2282,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2323,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2364,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2405,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2446,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2487,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2528,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2569,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2610,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2651,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2692,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2733,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2774,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2815,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2856,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2897,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2938,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2979,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3020,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3061,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3102,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3143,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3184,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3225,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3266,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3307,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3348,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3389,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3430,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3471,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3512,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3553,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3594,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3635,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3676,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3717,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3758,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3799,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3840,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3881,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3922,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3963,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4004,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4045,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4086,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4127,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4168,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4209,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4250,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4291,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4332,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4373,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4414,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4455,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4496,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4537,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4578,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4619,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4660,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4701,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4742,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4783,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4824,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4865,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4906,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4947,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4988,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5029,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5070,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5111,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5152,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5193,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5234,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5275,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5316,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5357,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5398,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5439,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5480,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5521,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5562,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5603,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5644,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5685,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5726,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5767,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5808,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5849,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5890,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5931,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5972,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -6013,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6054,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6095,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6136,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6177,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6218,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6259,14 +5357,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6300,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6341,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6382,14 +5462,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6423,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6464,14 +5532,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6505,14 +5567,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6546,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6587,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6628,14 +5672,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6669,14 +5707,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6710,14 +5742,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6751,14 +5777,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6792,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6833,14 +5847,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6874,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6915,14 +5917,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6956,14 +5952,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6997,14 +5987,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -7038,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -7079,14 +6057,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7120,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7161,14 +6127,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7202,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7243,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7284,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7325,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7366,14 +6302,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7407,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7448,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7489,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7530,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7571,14 +6477,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7612,14 +6512,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7653,14 +6547,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7694,14 +6582,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7735,14 +6617,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7776,14 +6652,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7817,14 +6687,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7858,14 +6722,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7899,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7940,14 +6792,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7981,14 +6827,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -8022,14 +6862,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -8063,14 +6897,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -8104,14 +6932,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -8145,14 +6967,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -8186,14 +7002,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8227,14 +7037,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8268,14 +7072,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8309,14 +7107,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8350,14 +7142,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8391,14 +7177,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8432,14 +7212,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8473,14 +7247,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8514,14 +7282,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8555,14 +7317,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8596,14 +7352,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8637,14 +7387,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8678,14 +7422,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8719,14 +7457,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8760,14 +7492,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8801,14 +7527,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8842,14 +7562,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8883,14 +7597,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8924,14 +7632,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8965,14 +7667,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -9006,14 +7702,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -9047,14 +7737,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -9088,14 +7772,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -9129,14 +7807,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -9170,14 +7842,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -9211,14 +7877,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -9252,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9293,14 +7947,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9334,14 +7982,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9375,14 +8017,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9416,14 +8052,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9457,14 +8087,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9498,14 +8122,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9539,14 +8157,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9580,14 +8192,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9621,14 +8227,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9662,14 +8262,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9703,14 +8297,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9744,14 +8332,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9785,14 +8367,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9826,14 +8402,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9867,14 +8437,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9908,14 +8472,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9949,14 +8507,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9990,14 +8542,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -10031,14 +8577,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -10072,14 +8612,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -10113,14 +8647,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -10154,14 +8682,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -10195,14 +8717,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -10236,14 +8752,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -10277,14 +8787,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -10318,14 +8822,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -10359,14 +8857,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -10400,14 +8892,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10441,14 +8927,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10482,14 +8962,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10523,14 +8997,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10564,14 +9032,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10605,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10646,14 +9102,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10687,14 +9137,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10728,14 +9172,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10769,14 +9207,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10810,14 +9242,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10851,14 +9277,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10892,14 +9312,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10933,14 +9347,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10974,14 +9382,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -11015,14 +9417,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -11056,14 +9452,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -11097,14 +9487,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -11138,14 +9522,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -11179,14 +9557,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -11220,14 +9592,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -11261,14 +9627,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -11302,14 +9662,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -11343,14 +9697,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -11384,14 +9732,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -11425,14 +9767,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -11466,14 +9802,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -11507,14 +9837,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -11548,14 +9872,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -11589,14 +9907,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -11630,14 +9942,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11671,14 +9977,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11712,14 +10012,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11753,14 +10047,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11794,14 +10082,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11835,14 +10117,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11876,14 +10152,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11917,14 +10187,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11958,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11999,14 +10257,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -12040,14 +10292,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -12081,14 +10327,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -12122,14 +10362,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -12163,14 +10397,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -12204,14 +10432,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -12245,16 +10467,10 @@
         <v>1</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
-        <v>1.051650246305419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -12318,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
@@ -13610,14 +11826,20 @@
         <v>4.193499999999997</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>4.14</v>
+      </c>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -13645,14 +11867,20 @@
         <v>4.192999999999997</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>4.13</v>
+      </c>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -13680,14 +11908,20 @@
         <v>4.192666666666663</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>4.12</v>
+      </c>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -13715,14 +11949,20 @@
         <v>4.192166666666663</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>4.13</v>
+      </c>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -13750,14 +11990,20 @@
         <v>4.19183333333333</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>4.12</v>
+      </c>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -13792,7 +12038,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -13827,7 +12077,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13855,14 +12109,20 @@
         <v>4.190499999999997</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>4.12</v>
+      </c>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13897,7 +12157,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13932,7 +12196,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13967,7 +12235,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -14002,7 +12274,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -14037,7 +12313,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -14072,7 +12352,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -14107,7 +12391,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -14142,7 +12430,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -14177,7 +12469,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -14212,7 +12508,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -14247,7 +12547,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -14282,7 +12586,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -14317,7 +12625,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -14352,7 +12664,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -14387,7 +12703,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -14422,7 +12742,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -14457,7 +12781,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -14492,7 +12820,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -14527,7 +12859,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -14562,7 +12898,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -14597,7 +12937,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -14632,7 +12976,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -14667,7 +13015,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -14702,7 +13054,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -14737,7 +13093,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -14772,7 +13132,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -14807,7 +13171,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -14842,7 +13210,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14877,7 +13249,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14908,14 +13284,16 @@
         <v>0</v>
       </c>
       <c r="I364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">

--- a/BackTest/2019-11-01 BackTest PLY.xlsx
+++ b/BackTest/2019-11-01 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1193419.3476</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-704515.6078</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.05</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-704515.6078</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-704515.6078</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-704515.6078</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.06</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>-704515.6078</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>-704515.6078</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +722,14 @@
         <v>-704515.6078</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.06</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +759,19 @@
         <v>-707465.519</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +800,19 @@
         <v>-583939.9647</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,10 +841,14 @@
         <v>-583939.9647</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -814,11 +878,19 @@
         <v>-583939.9647</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +919,19 @@
         <v>-583939.9647</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,10 +960,14 @@
         <v>-583939.9647</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -913,11 +997,19 @@
         <v>-583939.9647</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1038,19 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1082,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1121,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1157,19 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1201,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1237,19 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1281,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1320,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1359,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1398,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1437,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1473,19 @@
         <v>-664364.3467999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1517,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1556,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1595,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1634,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1673,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1712,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1751,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1790,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1829,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1868,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1907,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1946,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1985,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2024,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2063,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2102,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2141,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2180,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2219,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2258,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2297,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2336,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2375,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2414,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,15 +2450,17 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>4.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+        <v>4.07</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2175,11 +2493,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2214,11 +2532,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2252,8 +2570,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2285,8 +2609,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2318,8 +2648,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2351,8 +2687,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2384,8 +2726,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2765,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2450,8 +2804,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2483,8 +2843,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2516,8 +2882,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2546,15 +2918,15 @@
         <v>-895698.2570999998</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2588,7 +2960,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2625,7 +2999,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2662,7 +3038,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2699,7 +3077,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2733,12 +3113,12 @@
         <v>-845026.6322999998</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2772,12 +3152,12 @@
         <v>-845026.6322999998</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2811,12 +3191,12 @@
         <v>-845026.6322999998</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2850,12 +3230,12 @@
         <v>-845026.6322999998</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2889,12 +3269,12 @@
         <v>-648659.9455999999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2928,12 +3308,12 @@
         <v>-863861.9431999999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2967,12 +3347,12 @@
         <v>-863861.9431999999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3006,12 +3386,12 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3045,12 +3425,12 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3084,12 +3464,14 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>4.07</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3123,12 +3505,12 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3162,12 +3544,12 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3204,7 +3586,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3241,7 +3625,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3278,7 +3664,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3315,7 +3703,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3352,7 +3742,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3389,7 +3781,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3426,7 +3820,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3463,7 +3859,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3500,7 +3898,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3537,7 +3937,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3574,7 +3976,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3608,12 +4012,12 @@
         <v>-374818.0930999998</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3647,12 +4051,12 @@
         <v>-374818.0930999998</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3686,12 +4090,12 @@
         <v>-274701.9447999998</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3725,12 +4129,12 @@
         <v>-274701.9447999998</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3767,7 +4171,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3804,7 +4210,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3841,7 +4249,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3875,12 +4285,12 @@
         <v>-58639.80899999983</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3914,12 +4324,12 @@
         <v>-58639.80899999983</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3953,12 +4363,12 @@
         <v>-295437.7413999998</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3992,12 +4402,12 @@
         <v>-295437.7413999998</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4031,12 +4441,12 @@
         <v>-295437.7413999998</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4073,7 +4483,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4110,7 +4522,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4147,7 +4561,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4184,7 +4600,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4221,7 +4639,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4258,7 +4678,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4295,7 +4717,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4332,7 +4756,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4369,7 +4795,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4406,7 +4834,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4443,7 +4873,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4480,7 +4912,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4517,7 +4951,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4554,7 +4990,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4591,7 +5029,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4628,7 +5068,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4665,7 +5107,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4702,7 +5146,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4739,7 +5185,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4776,7 +5224,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4813,7 +5263,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4850,7 +5302,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4887,7 +5341,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4924,7 +5380,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4961,7 +5419,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4998,7 +5458,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5035,7 +5497,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5072,7 +5536,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5109,7 +5575,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5146,7 +5614,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5183,7 +5653,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5220,7 +5692,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5257,7 +5731,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5294,7 +5770,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5331,7 +5809,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5368,7 +5848,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5405,7 +5887,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5442,7 +5926,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5479,7 +5965,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5516,7 +6004,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5553,7 +6043,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5590,7 +6082,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5627,7 +6121,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5664,7 +6160,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5701,7 +6199,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5738,7 +6238,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5775,7 +6277,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5812,7 +6316,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5849,7 +6355,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5886,7 +6394,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5923,7 +6433,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5960,7 +6472,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5997,7 +6511,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6034,7 +6550,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6071,7 +6589,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6108,7 +6628,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6145,7 +6667,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6182,7 +6706,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6219,7 +6745,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6256,7 +6784,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6293,7 +6823,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6330,7 +6862,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6367,7 +6901,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6404,7 +6940,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6441,7 +6979,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6478,7 +7018,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6515,7 +7057,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6552,7 +7096,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6589,7 +7135,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6626,7 +7174,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6663,7 +7213,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6700,7 +7252,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6737,7 +7291,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6774,7 +7330,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6811,7 +7369,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6848,7 +7408,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6885,7 +7447,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6922,7 +7486,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6959,7 +7525,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6996,7 +7564,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7033,7 +7603,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7070,7 +7642,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7107,7 +7681,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7144,7 +7720,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7181,7 +7759,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7218,7 +7798,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7255,7 +7837,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7292,7 +7876,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7329,7 +7915,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7366,7 +7954,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7403,7 +7993,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7440,7 +8032,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7477,7 +8071,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7514,7 +8110,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7551,7 +8149,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7588,7 +8188,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7625,7 +8227,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7662,7 +8266,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7699,7 +8305,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7736,7 +8344,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7773,7 +8383,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7810,7 +8422,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7847,7 +8461,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7884,7 +8500,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7921,7 +8539,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7958,7 +8578,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7995,7 +8617,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8032,7 +8656,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8069,7 +8695,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8106,7 +8734,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8143,7 +8773,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8180,7 +8812,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8217,7 +8851,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8254,7 +8890,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8291,7 +8929,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8328,7 +8968,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8365,7 +9007,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8402,7 +9046,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8439,7 +9085,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8476,7 +9124,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8513,7 +9163,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8550,7 +9202,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8587,7 +9241,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8624,7 +9280,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8661,7 +9319,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8698,7 +9358,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8735,7 +9397,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8772,7 +9436,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8809,7 +9475,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8846,7 +9514,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8883,7 +9553,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8920,7 +9592,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8957,7 +9631,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8994,7 +9670,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9031,7 +9709,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9068,7 +9748,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9105,7 +9787,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9142,7 +9826,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9179,7 +9865,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9216,7 +9904,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9253,7 +9943,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9290,7 +9982,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9327,7 +10021,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9364,7 +10060,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9401,7 +10099,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9438,7 +10138,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9475,7 +10177,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9512,7 +10216,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9549,7 +10255,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9586,7 +10294,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9623,7 +10333,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9660,7 +10372,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9697,7 +10411,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9734,7 +10450,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9771,7 +10489,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9808,7 +10528,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9845,7 +10567,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9882,7 +10606,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9919,7 +10645,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9956,7 +10684,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9993,7 +10723,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10030,7 +10762,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10067,7 +10801,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10104,7 +10840,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10141,7 +10879,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10178,7 +10918,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10215,7 +10957,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10252,7 +10996,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10289,7 +11035,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10326,7 +11074,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10363,7 +11113,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10400,7 +11152,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10437,7 +11191,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10474,7 +11230,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10511,7 +11269,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10548,7 +11308,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10585,7 +11347,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10622,7 +11386,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10659,7 +11425,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10696,7 +11464,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10733,7 +11503,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10770,7 +11542,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10807,7 +11581,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10844,7 +11620,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10881,7 +11659,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10918,7 +11698,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10955,7 +11737,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10992,7 +11776,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11029,7 +11815,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11066,7 +11854,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11103,7 +11893,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11140,7 +11932,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11177,7 +11971,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11214,7 +12010,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11251,7 +12049,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11288,7 +12088,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11325,7 +12127,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11362,7 +12166,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11399,7 +12205,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11436,7 +12244,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11473,7 +12283,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11510,7 +12322,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11547,7 +12361,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11584,7 +12400,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11621,7 +12439,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11658,7 +12478,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11695,7 +12517,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11732,7 +12556,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11769,7 +12595,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11806,7 +12634,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11843,7 +12673,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11880,7 +12712,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11917,7 +12751,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11954,7 +12790,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11991,7 +12829,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12028,7 +12868,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12065,7 +12907,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12102,7 +12946,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12139,7 +12985,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12176,7 +13024,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12213,7 +13063,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12250,7 +13102,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12287,7 +13141,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12324,7 +13180,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12361,7 +13219,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12398,7 +13258,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12435,7 +13297,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12472,7 +13336,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12509,7 +13375,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12546,7 +13414,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12583,7 +13453,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12620,7 +13492,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12657,7 +13531,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12694,7 +13570,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12731,7 +13609,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12768,7 +13648,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12805,7 +13687,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12839,16 +13723,20 @@
         <v>984040.600900971</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L342" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
       <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
@@ -12874,11 +13762,17 @@
         <v>984040.600900971</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12907,11 +13801,17 @@
         <v>1364484.549100971</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12940,11 +13840,17 @@
         <v>1887697.888200971</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12973,11 +13879,17 @@
         <v>1887697.888200971</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13006,11 +13918,17 @@
         <v>2569023.539500971</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13039,11 +13957,17 @@
         <v>2771683.046000971</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13072,11 +13996,17 @@
         <v>2609966.137500971</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13105,11 +14035,17 @@
         <v>2609966.137500971</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13138,11 +14074,17 @@
         <v>2408857.832200971</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13171,11 +14113,17 @@
         <v>2408857.832200971</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13204,13 +14152,19 @@
         <v>1932713.186200971</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L353" t="n">
-        <v>1</v>
+        <v>1.039226044226044</v>
       </c>
       <c r="M353" t="inlineStr"/>
     </row>
@@ -13237,7 +14191,7 @@
         <v>2386489.346946005</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13270,7 +14224,7 @@
         <v>2386489.346946005</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13303,7 +14257,7 @@
         <v>2265130.777846005</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13336,7 +14290,7 @@
         <v>2265130.777846005</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13369,7 +14323,7 @@
         <v>1660985.651246005</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13402,7 +14356,7 @@
         <v>1301316.434246005</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13435,7 +14389,7 @@
         <v>932985.2566460047</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13468,7 +14422,7 @@
         <v>932985.2566460047</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13501,7 +14455,7 @@
         <v>831895.2566460047</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13534,7 +14488,7 @@
         <v>831895.2566460047</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13567,7 +14521,7 @@
         <v>856399.0843460048</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13600,7 +14554,7 @@
         <v>856399.0843460048</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13633,7 +14587,7 @@
         <v>1522627.212846005</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13666,7 +14620,7 @@
         <v>1424094.366846005</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13699,7 +14653,7 @@
         <v>1431237.223988862</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13732,7 +14686,7 @@
         <v>1431237.223988862</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13765,7 +14719,7 @@
         <v>1579167.631188862</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13798,7 +14752,7 @@
         <v>1579167.631188862</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13831,7 +14785,7 @@
         <v>1628295.461788862</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13864,7 +14818,7 @@
         <v>1003838.401888862</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13897,7 +14851,7 @@
         <v>889917.181488862</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13930,7 +14884,7 @@
         <v>548153.520088862</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13963,7 +14917,7 @@
         <v>691414.163288862</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13996,7 +14950,7 @@
         <v>691414.163288862</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14029,7 +14983,7 @@
         <v>690520.937688862</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14062,7 +15016,7 @@
         <v>693002.655788862</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14095,7 +15049,7 @@
         <v>680366.856388862</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14161,7 +15115,7 @@
         <v>830445.317688862</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14194,7 +15148,7 @@
         <v>830445.317688862</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14227,7 +15181,7 @@
         <v>1036333.724888862</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14260,7 +15214,7 @@
         <v>1036333.724888862</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14293,7 +15247,7 @@
         <v>1028734.981488862</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14326,7 +15280,7 @@
         <v>1028724.981488862</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14359,7 +15313,7 @@
         <v>1072344.489988862</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14392,7 +15346,7 @@
         <v>972318.1491888621</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14425,7 +15379,7 @@
         <v>1173994.097088862</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14491,7 +15445,7 @@
         <v>1173166.289888862</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14524,7 +15478,7 @@
         <v>1305169.626288862</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14557,7 +15511,7 @@
         <v>1305169.626288862</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14590,7 +15544,7 @@
         <v>1088104.343088862</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14623,7 +15577,7 @@
         <v>1222333.521588862</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14656,7 +15610,7 @@
         <v>1189005.923788862</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15481,7 +16435,7 @@
         <v>3020957.800288862</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15679,7 +16633,7 @@
         <v>2720367.317488862</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15712,7 +16666,7 @@
         <v>2587310.044288862</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15844,7 +16798,7 @@
         <v>2281502.582788861</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15877,7 +16831,7 @@
         <v>2281502.582788861</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15910,7 +16864,7 @@
         <v>2319517.820788861</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15943,7 +16897,7 @@
         <v>2266662.681288861</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15976,7 +16930,7 @@
         <v>2196827.646188861</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16009,7 +16963,7 @@
         <v>2211825.646188861</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16042,7 +16996,7 @@
         <v>2198343.069188861</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16075,7 +17029,7 @@
         <v>2205844.069188861</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16108,7 +17062,7 @@
         <v>2354245.794488861</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16141,7 +17095,7 @@
         <v>2062640.929888861</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16174,7 +17128,7 @@
         <v>1763510.400588861</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16207,7 +17161,7 @@
         <v>2044141.594688861</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16240,7 +17194,7 @@
         <v>2044141.594688861</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16273,7 +17227,7 @@
         <v>1670716.177888861</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16306,7 +17260,7 @@
         <v>1894393.985788861</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16339,7 +17293,7 @@
         <v>1593210.087088861</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16372,7 +17326,7 @@
         <v>1953100.527888861</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16405,7 +17359,7 @@
         <v>1622435.433488861</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16438,7 +17392,7 @@
         <v>1678751.901988861</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16471,7 +17425,7 @@
         <v>1678751.901988861</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16504,7 +17458,7 @@
         <v>1391554.399788861</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16537,7 +17491,7 @@
         <v>1391554.399788861</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16570,7 +17524,7 @@
         <v>1592389.713088861</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16603,7 +17557,7 @@
         <v>1592389.713088861</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16636,7 +17590,7 @@
         <v>1860329.947888861</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16669,7 +17623,7 @@
         <v>1562734.012688861</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16702,7 +17656,7 @@
         <v>1562734.012688861</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16735,7 +17689,7 @@
         <v>1120389.011388861</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16768,7 +17722,7 @@
         <v>1427986.576488861</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16801,7 +17755,7 @@
         <v>1536584.273588861</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16834,7 +17788,7 @@
         <v>1536584.273588861</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16867,7 +17821,7 @@
         <v>1345804.171388861</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16900,7 +17854,7 @@
         <v>1345804.171388861</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16933,7 +17887,7 @@
         <v>1038935.833688861</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16966,7 +17920,7 @@
         <v>1038945.833688861</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16999,7 +17953,7 @@
         <v>1041865.269188861</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17032,7 +17986,7 @@
         <v>891497.603488861</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17065,7 +18019,7 @@
         <v>1312810.124588861</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17098,7 +18052,7 @@
         <v>1312810.124588861</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17131,7 +18085,7 @@
         <v>1312810.124588861</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17362,7 +18316,7 @@
         <v>1038417.396588861</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17395,7 +18349,7 @@
         <v>1038417.396588861</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -24633,6 +25587,6 @@
       <c r="M699" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest PLY.xlsx
+++ b/BackTest/2019-11-01 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1193419.3476</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-704515.6078</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-704515.6078</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-704515.6078</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-704515.6078</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>-704515.6078</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>-704515.6078</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,14 +682,10 @@
         <v>-704515.6078</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -759,19 +715,11 @@
         <v>-707465.519</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,19 +748,11 @@
         <v>-583939.9647</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -841,14 +781,10 @@
         <v>-583939.9647</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -878,19 +814,11 @@
         <v>-583939.9647</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -919,19 +847,11 @@
         <v>-583939.9647</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -960,14 +880,10 @@
         <v>-583939.9647</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -997,19 +913,11 @@
         <v>-583939.9647</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1038,19 +946,11 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1082,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1121,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1157,19 +1045,11 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1201,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1237,19 +1111,11 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1281,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1320,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1359,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1398,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1437,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1473,19 +1309,11 @@
         <v>-664364.3467999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1517,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1556,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1595,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1634,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1673,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1712,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1751,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1790,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1829,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1868,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1907,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1946,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1985,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2024,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2063,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2102,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2141,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2180,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2219,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2258,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2297,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2336,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2375,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2414,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2453,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2492,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2528,17 +2200,15 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4.06</v>
+      </c>
       <c r="J55" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>4.06</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2567,15 +2237,17 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>4.06</v>
+      </c>
       <c r="J56" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2606,15 +2278,17 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4.06</v>
+      </c>
       <c r="J57" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2645,17 +2319,15 @@
         <v>-835611.6371999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4.06</v>
+      </c>
       <c r="J58" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>4.06</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2684,15 +2356,17 @@
         <v>-835611.6371999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4.07</v>
+      </c>
       <c r="J59" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2727,7 +2401,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2762,11 +2436,13 @@
         <v>-932272.0311999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4.06</v>
+      </c>
       <c r="J61" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2801,11 +2477,13 @@
         <v>-932272.0311999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>4.06</v>
+      </c>
       <c r="J62" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2840,11 +2518,13 @@
         <v>-932272.0311999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4.06</v>
+      </c>
       <c r="J63" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2883,7 +2563,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2918,11 +2598,13 @@
         <v>-895698.2570999998</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4.07</v>
+      </c>
       <c r="J65" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2961,7 +2643,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2996,11 +2678,13 @@
         <v>-809466.9556999998</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4.06</v>
+      </c>
       <c r="J67" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3039,7 +2723,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3074,11 +2758,13 @@
         <v>-786155.3388999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4.06</v>
+      </c>
       <c r="J69" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3113,11 +2799,13 @@
         <v>-845026.6322999998</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4.07</v>
+      </c>
       <c r="J70" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3152,11 +2840,13 @@
         <v>-845026.6322999998</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4.06</v>
+      </c>
       <c r="J71" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3191,11 +2881,13 @@
         <v>-845026.6322999998</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>4.06</v>
+      </c>
       <c r="J72" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3230,11 +2922,13 @@
         <v>-845026.6322999998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>4.06</v>
+      </c>
       <c r="J73" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3269,11 +2963,13 @@
         <v>-648659.9455999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4.06</v>
+      </c>
       <c r="J74" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3308,11 +3004,13 @@
         <v>-863861.9431999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>4.07</v>
+      </c>
       <c r="J75" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3347,11 +3045,13 @@
         <v>-863861.9431999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4.06</v>
+      </c>
       <c r="J76" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3386,11 +3086,13 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>4.06</v>
+      </c>
       <c r="J77" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3425,11 +3127,13 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>4.07</v>
+      </c>
       <c r="J78" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3470,7 +3174,7 @@
         <v>4.07</v>
       </c>
       <c r="J79" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3505,11 +3209,13 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>4.07</v>
+      </c>
       <c r="J80" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3544,11 +3250,13 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>4.07</v>
+      </c>
       <c r="J81" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3583,11 +3291,13 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>4.07</v>
+      </c>
       <c r="J82" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3622,11 +3332,13 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>4.07</v>
+      </c>
       <c r="J83" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3661,11 +3373,13 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>4.07</v>
+      </c>
       <c r="J84" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3704,7 +3418,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3743,7 +3457,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3782,7 +3496,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3821,7 +3535,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3860,7 +3574,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3899,7 +3613,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3938,7 +3652,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3977,7 +3691,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4016,7 +3730,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4055,7 +3769,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4094,7 +3808,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4133,7 +3847,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4172,7 +3886,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4211,7 +3925,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4250,7 +3964,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4289,7 +4003,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4328,7 +4042,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4367,7 +4081,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4406,7 +4120,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4445,7 +4159,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4484,7 +4198,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4523,7 +4237,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4562,7 +4276,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4601,7 +4315,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4640,7 +4354,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4679,7 +4393,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4718,7 +4432,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4757,7 +4471,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4796,7 +4510,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4835,7 +4549,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4874,7 +4588,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4913,7 +4627,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4952,7 +4666,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4991,7 +4705,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5030,7 +4744,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5069,7 +4783,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5108,7 +4822,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5147,7 +4861,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5186,7 +4900,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5225,7 +4939,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5264,7 +4978,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5303,7 +5017,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5342,7 +5056,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5381,7 +5095,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5420,7 +5134,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5459,7 +5173,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5498,7 +5212,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5537,7 +5251,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5576,7 +5290,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5615,7 +5329,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5654,7 +5368,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5693,7 +5407,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5732,7 +5446,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5771,7 +5485,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5810,7 +5524,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5849,7 +5563,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5888,7 +5602,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5927,7 +5641,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5966,7 +5680,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6005,7 +5719,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6044,7 +5758,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6083,7 +5797,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6122,7 +5836,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6161,7 +5875,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6200,7 +5914,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6239,7 +5953,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6278,7 +5992,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6317,7 +6031,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6356,7 +6070,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6395,7 +6109,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6434,7 +6148,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6473,7 +6187,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6512,7 +6226,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6551,7 +6265,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6590,7 +6304,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6629,7 +6343,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6668,7 +6382,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6707,7 +6421,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6746,7 +6460,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6785,7 +6499,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6824,7 +6538,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6863,7 +6577,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6902,7 +6616,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6941,7 +6655,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6980,7 +6694,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7019,7 +6733,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7058,7 +6772,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7097,7 +6811,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7136,7 +6850,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7175,7 +6889,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7214,7 +6928,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7253,7 +6967,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7292,7 +7006,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7331,7 +7045,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7370,7 +7084,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7409,7 +7123,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7448,7 +7162,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7487,7 +7201,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7526,7 +7240,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7565,7 +7279,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7604,7 +7318,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7643,7 +7357,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7682,7 +7396,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7721,7 +7435,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7760,7 +7474,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7799,7 +7513,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7838,7 +7552,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7877,7 +7591,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7916,7 +7630,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7955,7 +7669,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7994,7 +7708,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8033,7 +7747,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8072,7 +7786,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8111,7 +7825,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8150,7 +7864,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8189,7 +7903,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8228,7 +7942,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8267,7 +7981,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8306,7 +8020,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8345,7 +8059,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8384,7 +8098,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8423,7 +8137,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8462,7 +8176,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8501,7 +8215,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8540,7 +8254,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8579,7 +8293,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8618,7 +8332,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8657,7 +8371,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8696,7 +8410,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8735,7 +8449,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8774,7 +8488,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8813,7 +8527,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8852,7 +8566,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8891,7 +8605,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8930,7 +8644,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8969,7 +8683,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -9008,7 +8722,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9047,7 +8761,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9086,7 +8800,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9125,7 +8839,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9164,7 +8878,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9203,7 +8917,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9242,7 +8956,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9281,7 +8995,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9320,7 +9034,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9359,7 +9073,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9398,7 +9112,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9437,7 +9151,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9476,7 +9190,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9515,7 +9229,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9554,7 +9268,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9593,7 +9307,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9632,7 +9346,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9671,7 +9385,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9710,7 +9424,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9749,7 +9463,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9788,7 +9502,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9827,7 +9541,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9866,7 +9580,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9905,7 +9619,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9944,7 +9658,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9983,7 +9697,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10022,7 +9736,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10061,7 +9775,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10100,7 +9814,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10139,7 +9853,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10178,7 +9892,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10217,7 +9931,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10256,7 +9970,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10295,7 +10009,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10334,7 +10048,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10373,7 +10087,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10412,7 +10126,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10451,7 +10165,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10490,7 +10204,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10529,7 +10243,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10568,7 +10282,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10607,7 +10321,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10646,7 +10360,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10685,7 +10399,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10724,7 +10438,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10763,7 +10477,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10802,7 +10516,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10841,7 +10555,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10880,7 +10594,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10919,7 +10633,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10958,7 +10672,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10997,7 +10711,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -11036,7 +10750,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -11075,7 +10789,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -11114,7 +10828,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -11153,7 +10867,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11192,7 +10906,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11231,7 +10945,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11270,7 +10984,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11309,7 +11023,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11348,7 +11062,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11387,7 +11101,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11426,7 +11140,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11465,7 +11179,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11504,7 +11218,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11543,7 +11257,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11582,7 +11296,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11621,7 +11335,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11660,7 +11374,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11699,7 +11413,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11738,7 +11452,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11777,7 +11491,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11816,7 +11530,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11855,7 +11569,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11894,7 +11608,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11933,7 +11647,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11972,7 +11686,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -12011,7 +11725,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -12050,7 +11764,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -12089,7 +11803,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -12128,7 +11842,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -12167,7 +11881,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -12206,7 +11920,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -12245,7 +11959,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -12284,7 +11998,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -12323,7 +12037,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -12362,7 +12076,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -12401,7 +12115,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -12440,7 +12154,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12479,7 +12193,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12518,7 +12232,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12557,7 +12271,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12596,7 +12310,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12635,7 +12349,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12674,7 +12388,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12713,7 +12427,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12752,7 +12466,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12791,7 +12505,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12830,7 +12544,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12869,7 +12583,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12908,7 +12622,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -12947,7 +12661,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -12986,7 +12700,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -13025,7 +12739,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -13064,7 +12778,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -13103,7 +12817,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -13142,7 +12856,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -13181,7 +12895,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -13220,7 +12934,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -13259,7 +12973,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -13298,7 +13012,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -13337,7 +13051,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -13376,7 +13090,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -13415,7 +13129,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -13454,7 +13168,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -13493,7 +13207,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -13532,7 +13246,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -13571,7 +13285,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -13610,7 +13324,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -13649,7 +13363,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -13688,7 +13402,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13727,7 +13441,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13766,7 +13480,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -13805,7 +13519,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -13844,7 +13558,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -13879,19 +13593,19 @@
         <v>1887697.888200971</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L346" t="n">
-        <v>1</v>
+        <v>1.049187192118227</v>
       </c>
       <c r="M346" t="inlineStr"/>
     </row>
@@ -13918,17 +13632,11 @@
         <v>2569023.539500971</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13957,17 +13665,11 @@
         <v>2771683.046000971</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13999,14 +13701,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14038,14 +13734,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14077,14 +13767,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14116,14 +13800,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14152,19 +13830,13 @@
         <v>1932713.186200971</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
-        <v>1.039226044226044</v>
+        <v>1</v>
       </c>
       <c r="M353" t="inlineStr"/>
     </row>
@@ -14191,7 +13863,7 @@
         <v>2386489.346946005</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -14224,7 +13896,7 @@
         <v>2386489.346946005</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -14257,7 +13929,7 @@
         <v>2265130.777846005</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -14290,7 +13962,7 @@
         <v>2265130.777846005</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -14323,7 +13995,7 @@
         <v>1660985.651246005</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -14356,7 +14028,7 @@
         <v>1301316.434246005</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -14389,7 +14061,7 @@
         <v>932985.2566460047</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14422,7 +14094,7 @@
         <v>932985.2566460047</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14455,7 +14127,7 @@
         <v>831895.2566460047</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14488,7 +14160,7 @@
         <v>831895.2566460047</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14521,7 +14193,7 @@
         <v>856399.0843460048</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14554,7 +14226,7 @@
         <v>856399.0843460048</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14620,7 +14292,7 @@
         <v>1424094.366846005</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14884,7 +14556,7 @@
         <v>548153.520088862</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14950,7 +14622,7 @@
         <v>691414.163288862</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14983,7 +14655,7 @@
         <v>690520.937688862</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -15082,7 +14754,7 @@
         <v>830445.317688862</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -15115,7 +14787,7 @@
         <v>830445.317688862</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -15148,7 +14820,7 @@
         <v>830445.317688862</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -15181,7 +14853,7 @@
         <v>1036333.724888862</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -15280,7 +14952,7 @@
         <v>1028724.981488862</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -15313,7 +14985,7 @@
         <v>1072344.489988862</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15346,7 +15018,7 @@
         <v>972318.1491888621</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15379,7 +15051,7 @@
         <v>1173994.097088862</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15445,7 +15117,7 @@
         <v>1173166.289888862</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15478,7 +15150,7 @@
         <v>1305169.626288862</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15511,7 +15183,7 @@
         <v>1305169.626288862</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15544,7 +15216,7 @@
         <v>1088104.343088862</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15577,7 +15249,7 @@
         <v>1222333.521588862</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15610,7 +15282,7 @@
         <v>1189005.923788862</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -16534,7 +16206,7 @@
         <v>2881315.729788862</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16567,7 +16239,7 @@
         <v>2726232.722788862</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16600,7 +16272,7 @@
         <v>2720357.317488862</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16699,7 +16371,7 @@
         <v>2340976.339188862</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16732,7 +16404,7 @@
         <v>2340976.339188862</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16765,7 +16437,7 @@
         <v>2493196.282488862</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16996,7 +16668,7 @@
         <v>2198343.069188861</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -17029,7 +16701,7 @@
         <v>2205844.069188861</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17062,7 +16734,7 @@
         <v>2354245.794488861</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17227,7 +16899,7 @@
         <v>1670716.177888861</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17260,7 +16932,7 @@
         <v>1894393.985788861</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17293,7 +16965,7 @@
         <v>1593210.087088861</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17326,7 +16998,7 @@
         <v>1953100.527888861</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17359,7 +17031,7 @@
         <v>1622435.433488861</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17392,7 +17064,7 @@
         <v>1678751.901988861</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17425,7 +17097,7 @@
         <v>1678751.901988861</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17458,7 +17130,7 @@
         <v>1391554.399788861</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17491,7 +17163,7 @@
         <v>1391554.399788861</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17524,7 +17196,7 @@
         <v>1592389.713088861</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17557,7 +17229,7 @@
         <v>1592389.713088861</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17590,7 +17262,7 @@
         <v>1860329.947888861</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17623,7 +17295,7 @@
         <v>1562734.012688861</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17656,7 +17328,7 @@
         <v>1562734.012688861</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17689,7 +17361,7 @@
         <v>1120389.011388861</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17722,7 +17394,7 @@
         <v>1427986.576488861</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17755,7 +17427,7 @@
         <v>1536584.273588861</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17788,7 +17460,7 @@
         <v>1536584.273588861</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17821,7 +17493,7 @@
         <v>1345804.171388861</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17854,7 +17526,7 @@
         <v>1345804.171388861</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17887,7 +17559,7 @@
         <v>1038935.833688861</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17920,7 +17592,7 @@
         <v>1038945.833688861</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17953,7 +17625,7 @@
         <v>1041865.269188861</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17986,7 +17658,7 @@
         <v>891497.603488861</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18019,7 +17691,7 @@
         <v>1312810.124588861</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18052,7 +17724,7 @@
         <v>1312810.124588861</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18085,7 +17757,7 @@
         <v>1312810.124588861</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18316,7 +17988,7 @@
         <v>1038417.396588861</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18349,7 +18021,7 @@
         <v>1038417.396588861</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -25587,6 +25259,6 @@
       <c r="M699" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest PLY.xlsx
+++ b/BackTest/2019-11-01 BackTest PLY.xlsx
@@ -484,10 +484,14 @@
         <v>-704515.6078</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.05</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -520,8 +524,14 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +560,19 @@
         <v>-704515.6078</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +601,14 @@
         <v>-704515.6078</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.06</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -619,8 +641,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +680,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +716,14 @@
         <v>-704515.6078</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.06</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -718,8 +756,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +792,19 @@
         <v>-583939.9647</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,10 +833,14 @@
         <v>-583939.9647</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.07</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -814,11 +870,19 @@
         <v>-583939.9647</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +914,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -1012,10 +1082,14 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.06</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1045,11 +1119,19 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1160,19 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,10 +1201,14 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.06</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1144,11 +1238,19 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1282,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,10 +1318,14 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.06</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
@@ -1243,11 +1355,19 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1396,19 @@
         <v>-664364.3467999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1437,19 @@
         <v>-664364.3467999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1478,19 @@
         <v>-446884.2568999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1519,19 @@
         <v>-446884.2568999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1563,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1602,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1641,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1680,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1719,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1758,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1797,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1836,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1872,19 @@
         <v>-447874.2568999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1916,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1955,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1994,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2030,19 @@
         <v>-800971.3558999998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2071,19 @@
         <v>-800971.3558999998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2112,19 @@
         <v>-676648.0792999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2153,19 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2194,19 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2235,19 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2276,19 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2317,19 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2358,19 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2399,19 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2440,19 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2481,19 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2208,7 +2530,11 @@
       <c r="J55" t="n">
         <v>4.06</v>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2247,7 +2573,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2288,7 +2614,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2327,7 +2653,11 @@
       <c r="J58" t="n">
         <v>4.06</v>
       </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2366,7 +2696,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2397,9 +2727,11 @@
         <v>-932272.0311999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4.07</v>
+      </c>
       <c r="J60" t="n">
         <v>4.06</v>
       </c>
@@ -2559,9 +2891,11 @@
         <v>-895698.2570999998</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4.06</v>
+      </c>
       <c r="J64" t="n">
         <v>4.06</v>
       </c>
@@ -2639,9 +2973,11 @@
         <v>-1041787.9696</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4.07</v>
+      </c>
       <c r="J66" t="n">
         <v>4.06</v>
       </c>
@@ -2719,9 +3055,11 @@
         <v>-966895.2810999998</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4.07</v>
+      </c>
       <c r="J68" t="n">
         <v>4.06</v>
       </c>
@@ -3045,11 +3383,9 @@
         <v>-863861.9431999999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>4.06</v>
       </c>
@@ -3209,11 +3545,9 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>4.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>4.06</v>
       </c>
@@ -3291,11 +3625,9 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>4.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>4.06</v>
       </c>
@@ -3332,11 +3664,9 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>4.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>4.06</v>
       </c>
@@ -3373,11 +3703,9 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>4.06</v>
       </c>
@@ -13593,7 +13921,7 @@
         <v>1887697.888200971</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
@@ -13601,11 +13929,11 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L346" t="n">
-        <v>1.049187192118227</v>
+        <v>1</v>
       </c>
       <c r="M346" t="inlineStr"/>
     </row>
@@ -13632,11 +13960,17 @@
         <v>2569023.539500971</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13665,11 +13999,17 @@
         <v>2771683.046000971</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13698,15 +14038,23 @@
         <v>2609966.137500971</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
+        <v>1.051650246305419</v>
+      </c>
+      <c r="M349" t="n">
+        <v>1.004938271604938</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13731,7 +14079,7 @@
         <v>2609966.137500971</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13764,7 +14112,7 @@
         <v>2408857.832200971</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13797,7 +14145,7 @@
         <v>2408857.832200971</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13830,7 +14178,7 @@
         <v>1932713.186200971</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13863,7 +14211,7 @@
         <v>2386489.346946005</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13896,7 +14244,7 @@
         <v>2386489.346946005</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13929,7 +14277,7 @@
         <v>2265130.777846005</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13962,7 +14310,7 @@
         <v>2265130.777846005</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13995,7 +14343,7 @@
         <v>1660985.651246005</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -14028,7 +14376,7 @@
         <v>1301316.434246005</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -14061,7 +14409,7 @@
         <v>932985.2566460047</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14259,7 +14607,7 @@
         <v>1522627.212846005</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14325,7 +14673,7 @@
         <v>1431237.223988862</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14358,7 +14706,7 @@
         <v>1431237.223988862</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14391,7 +14739,7 @@
         <v>1579167.631188862</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14424,7 +14772,7 @@
         <v>1579167.631188862</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14457,7 +14805,7 @@
         <v>1628295.461788862</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14490,7 +14838,7 @@
         <v>1003838.401888862</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14523,7 +14871,7 @@
         <v>889917.181488862</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14589,7 +14937,7 @@
         <v>691414.163288862</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14688,7 +15036,7 @@
         <v>693002.655788862</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14721,7 +15069,7 @@
         <v>680366.856388862</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14754,7 +15102,7 @@
         <v>830445.317688862</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14886,7 +15234,7 @@
         <v>1036333.724888862</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14919,7 +15267,7 @@
         <v>1028734.981488862</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -16206,7 +16554,7 @@
         <v>2881315.729788862</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16239,7 +16587,7 @@
         <v>2726232.722788862</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16272,7 +16620,7 @@
         <v>2720357.317488862</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16305,7 +16653,7 @@
         <v>2720367.317488862</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16338,7 +16686,7 @@
         <v>2587310.044288862</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16371,7 +16719,7 @@
         <v>2340976.339188862</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16404,7 +16752,7 @@
         <v>2340976.339188862</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16437,7 +16785,7 @@
         <v>2493196.282488862</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16470,7 +16818,7 @@
         <v>2281502.582788861</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16503,7 +16851,7 @@
         <v>2281502.582788861</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16536,7 +16884,7 @@
         <v>2319517.820788861</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16569,7 +16917,7 @@
         <v>2266662.681288861</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16602,7 +16950,7 @@
         <v>2196827.646188861</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16635,7 +16983,7 @@
         <v>2211825.646188861</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16767,7 +17115,7 @@
         <v>2062640.929888861</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16800,7 +17148,7 @@
         <v>1763510.400588861</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16833,7 +17181,7 @@
         <v>2044141.594688861</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16866,7 +17214,7 @@
         <v>2044141.594688861</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
